--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>67.77251700000001</v>
+        <v>47.23036199999999</v>
       </c>
       <c r="H2">
-        <v>203.317551</v>
+        <v>141.691086</v>
       </c>
       <c r="I2">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="J2">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.215523666666667</v>
+        <v>15.01856033333333</v>
       </c>
       <c r="N2">
-        <v>18.646571</v>
+        <v>45.055681</v>
       </c>
       <c r="O2">
-        <v>0.2852115546146347</v>
+        <v>0.4908713633047416</v>
       </c>
       <c r="P2">
-        <v>0.2852115546146348</v>
+        <v>0.4908713633047417</v>
       </c>
       <c r="Q2">
-        <v>421.2416833630691</v>
+        <v>709.3320412621739</v>
       </c>
       <c r="R2">
-        <v>3791.175150267622</v>
+        <v>6383.988371359565</v>
       </c>
       <c r="S2">
-        <v>0.1163559880234222</v>
+        <v>0.1592510093100265</v>
       </c>
       <c r="T2">
-        <v>0.1163559880234222</v>
+        <v>0.1592510093100266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>67.77251700000001</v>
+        <v>47.23036199999999</v>
       </c>
       <c r="H3">
-        <v>203.317551</v>
+        <v>141.691086</v>
       </c>
       <c r="I3">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="J3">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>28.452212</v>
       </c>
       <c r="O3">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="P3">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="Q3">
-        <v>642.7593404858681</v>
+        <v>447.9360908202479</v>
       </c>
       <c r="R3">
-        <v>5784.834064372812</v>
+        <v>4031.424817382232</v>
       </c>
       <c r="S3">
-        <v>0.1775439161823302</v>
+        <v>0.100565419887957</v>
       </c>
       <c r="T3">
-        <v>0.1775439161823302</v>
+        <v>0.100565419887957</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>67.77251700000001</v>
+        <v>47.23036199999999</v>
       </c>
       <c r="H4">
-        <v>203.317551</v>
+        <v>141.691086</v>
       </c>
       <c r="I4">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="J4">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>18.279252</v>
       </c>
       <c r="O4">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="P4">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="Q4">
-        <v>412.9436389724281</v>
+        <v>287.778563016408</v>
       </c>
       <c r="R4">
-        <v>3716.492750751852</v>
+        <v>2590.007067147671</v>
       </c>
       <c r="S4">
-        <v>0.1140638901806191</v>
+        <v>0.06460870784379713</v>
       </c>
       <c r="T4">
-        <v>0.1140638901806191</v>
+        <v>0.06460870784379713</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>182.932819</v>
       </c>
       <c r="I5">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="J5">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.215523666666667</v>
+        <v>15.01856033333333</v>
       </c>
       <c r="N5">
-        <v>18.646571</v>
+        <v>45.055681</v>
       </c>
       <c r="O5">
-        <v>0.2852115546146347</v>
+        <v>0.4908713633047416</v>
       </c>
       <c r="P5">
-        <v>0.2852115546146348</v>
+        <v>0.4908713633047417</v>
       </c>
       <c r="Q5">
-        <v>379.0077553015166</v>
+        <v>915.7958596994155</v>
       </c>
       <c r="R5">
-        <v>3411.069797713649</v>
+        <v>8242.162737294739</v>
       </c>
       <c r="S5">
-        <v>0.1046900712307658</v>
+        <v>0.2056038730741213</v>
       </c>
       <c r="T5">
-        <v>0.1046900712307658</v>
+        <v>0.2056038730741213</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>182.932819</v>
       </c>
       <c r="I6">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="J6">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>28.452212</v>
       </c>
       <c r="O6">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="P6">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="Q6">
         <v>578.3159275495142</v>
@@ -818,10 +818,10 @@
         <v>5204.843347945628</v>
       </c>
       <c r="S6">
-        <v>0.1597432633030947</v>
+        <v>0.1298367898318081</v>
       </c>
       <c r="T6">
-        <v>0.1597432633030947</v>
+        <v>0.1298367898318081</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>182.932819</v>
       </c>
       <c r="I7">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="J7">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>18.279252</v>
       </c>
       <c r="O7">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="P7">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="Q7">
         <v>371.541677507932</v>
@@ -880,10 +880,10 @@
         <v>3343.875097571388</v>
       </c>
       <c r="S7">
-        <v>0.1026277804066559</v>
+        <v>0.08341423156156218</v>
       </c>
       <c r="T7">
-        <v>0.1026277804066559</v>
+        <v>0.08341423156156218</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>112.121186</v>
       </c>
       <c r="I8">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907278</v>
       </c>
       <c r="J8">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907277</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.215523666666667</v>
+        <v>15.01856033333333</v>
       </c>
       <c r="N8">
-        <v>18.646571</v>
+        <v>45.055681</v>
       </c>
       <c r="O8">
-        <v>0.2852115546146347</v>
+        <v>0.4908713633047416</v>
       </c>
       <c r="P8">
-        <v>0.2852115546146348</v>
+        <v>0.4908713633047417</v>
       </c>
       <c r="Q8">
-        <v>232.2972950392451</v>
+        <v>561.299598861963</v>
       </c>
       <c r="R8">
-        <v>2090.675655353206</v>
+        <v>5051.696389757666</v>
       </c>
       <c r="S8">
-        <v>0.06416549536044673</v>
+        <v>0.1260164809205938</v>
       </c>
       <c r="T8">
-        <v>0.06416549536044674</v>
+        <v>0.1260164809205938</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>112.121186</v>
       </c>
       <c r="I9">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907278</v>
       </c>
       <c r="J9">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907277</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>28.452212</v>
       </c>
       <c r="O9">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="P9">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="Q9">
         <v>354.4550837514925</v>
@@ -1004,10 +1004,10 @@
         <v>3190.095753763432</v>
       </c>
       <c r="S9">
-        <v>0.09790809672622633</v>
+        <v>0.07957814755139736</v>
       </c>
       <c r="T9">
-        <v>0.09790809672622634</v>
+        <v>0.07957814755139736</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>112.121186</v>
       </c>
       <c r="I10">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907278</v>
       </c>
       <c r="J10">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907277</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>18.279252</v>
       </c>
       <c r="O10">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="P10">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="Q10">
         <v>227.7212681592081</v>
@@ -1066,10 +1066,10 @@
         <v>2049.491413432872</v>
       </c>
       <c r="S10">
-        <v>0.06290149858643912</v>
+        <v>0.05112534001873652</v>
       </c>
       <c r="T10">
-        <v>0.06290149858643912</v>
+        <v>0.05112534001873652</v>
       </c>
     </row>
   </sheetData>
